--- a/medicine/Psychotrope/Brasserie_à_Vapeur/Brasserie_à_Vapeur.xlsx
+++ b/medicine/Psychotrope/Brasserie_à_Vapeur/Brasserie_à_Vapeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_%C3%A0_Vapeur</t>
+          <t>Brasserie_à_Vapeur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie à Vapeur est une brasserie basée à Pipaix en Belgique, brassant avec du matériel à vapeur du XVIIIe siècle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_%C3%A0_Vapeur</t>
+          <t>Brasserie_à_Vapeur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construction en 1785 de la brasserie Cuvelier[1],[2]. Lors des évolutions technologiques la brasserie ne suit pas et est laissée à l'abandon[2]. C'est en 1984 que Jean-Louis Dits et sa femme Sittelle rachètent le bâtiment et entreprennent la restauration de la brasserie en conservant la machinerie à vapeur, d'où le nom de la brasserie[3].
-La machine à vapeur a été construite aux Ateliers de Monsville (anc Simonis et Wambreuse) à Quaregnon en 1895[4]. C'est la dernière brasserie du XIXe siècle encore en activité dans le matériel d'époque.
-En 2020, la Brasserie à Vapeura été officiellement classé comme monument par la Région wallonne[1],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construction en 1785 de la brasserie Cuvelier,. Lors des évolutions technologiques la brasserie ne suit pas et est laissée à l'abandon. C'est en 1984 que Jean-Louis Dits et sa femme Sittelle rachètent le bâtiment et entreprennent la restauration de la brasserie en conservant la machinerie à vapeur, d'où le nom de la brasserie.
+La machine à vapeur a été construite aux Ateliers de Monsville (anc Simonis et Wambreuse) à Quaregnon en 1895. C'est la dernière brasserie du XIXe siècle encore en activité dans le matériel d'époque.
+En 2020, la Brasserie à Vapeura été officiellement classé comme monument par la Région wallonne,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_%C3%A0_Vapeur</t>
+          <t>Brasserie_à_Vapeur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vapeur Cochonne
-Bière brune, forte (9°), nez fruité et délicat, douce et ronde au palais ; faiblement houblonnée mais correctement épicée (chicorée torréfiée, coriandre, écorce d’orange douce). Cette bière prend le nom de Cochonnette lorsqu'elle est conditionnée en bouteille de 33 cl[6],[7].
-Saison Pipaix
-Bière très sèche, normalement houblonnée, légèrement acide, très épicée (poivre, gingembre, écorce d’orange douce, curaçao, badiane.)[8].
-Vapeur en Folie
-Bière blonde forte et ronde moyennement houblonnée et épicée (cumin et écorce d’orange douce)[7].
-Vapeur Légère
-Bière blonde légère, sèche délicatement houblonnée, subtilement épicée à la vanille et cannelle[7].
+          <t>Vapeur Cochonne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière brune, forte (9°), nez fruité et délicat, douce et ronde au palais ; faiblement houblonnée mais correctement épicée (chicorée torréfiée, coriandre, écorce d’orange douce). Cette bière prend le nom de Cochonnette lorsqu'elle est conditionnée en bouteille de 33 cl,.
 </t>
         </is>
       </c>
@@ -565,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brasserie_%C3%A0_Vapeur</t>
+          <t>Brasserie_à_Vapeur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +593,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saison Pipaix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière très sèche, normalement houblonnée, légèrement acide, très épicée (poivre, gingembre, écorce d’orange douce, curaçao, badiane.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brasserie_à_Vapeur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_%C3%A0_Vapeur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vapeur en Folie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde forte et ronde moyennement houblonnée et épicée (cumin et écorce d’orange douce).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasserie_à_Vapeur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_%C3%A0_Vapeur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vapeur Légère</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière blonde légère, sèche délicatement houblonnée, subtilement épicée à la vanille et cannelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brasserie_à_Vapeur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_%C3%A0_Vapeur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La brasserie propose des activités régulières :
 le dimanche à 11 heures précises (sur réservation) pour une visite guidée suivie d’une dégustation.
